--- a/nuevo_archivo.xlsx
+++ b/nuevo_archivo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://improven.sharepoint.com/sites/INDE02OPE/Documentos compartidos/General/03.1. GENERACIÓN DE DATOS/CopiasDatos/2003Res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_EE2F5EC5BC4D594AE6AAC8A63E587884BB31DD3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6D9C40-74B2-4D08-BE39-73B6AACE13DA}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_EE2F5EC5BC4D594AE6AAC8A63E587884BB31DD3A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C261C3F-71CB-40F6-9B21-211F12822A36}"/>
   <bookViews>
-    <workbookView xWindow="-28620" yWindow="3360" windowWidth="14445" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23985" yWindow="3360" windowWidth="20175" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$957</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7662,10 +7662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S957"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J958" sqref="J958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7732,7 +7733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8437,7 +8438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9053,7 +9054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9613,7 +9614,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9781,7 +9782,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9949,7 +9950,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10117,7 +10118,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10285,7 +10286,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10397,7 +10398,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10565,7 +10566,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10733,7 +10734,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10901,7 +10902,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10957,7 +10958,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11069,7 +11070,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11181,7 +11182,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11293,7 +11294,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11464,7 +11465,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11520,7 +11521,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11576,7 +11577,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11688,7 +11689,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11800,7 +11801,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11856,7 +11857,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11968,7 +11969,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12369,7 +12370,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12484,7 +12485,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12779,7 +12780,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13351,7 +13352,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13407,7 +13408,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -13575,7 +13576,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -13631,7 +13632,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13687,7 +13688,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -13799,7 +13800,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -13855,7 +13856,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13914,7 +13915,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13970,7 +13971,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14026,7 +14027,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14082,7 +14083,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14138,7 +14139,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14250,7 +14251,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14306,7 +14307,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14418,7 +14419,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14530,7 +14531,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14586,7 +14587,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14642,7 +14643,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14698,7 +14699,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14754,7 +14755,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14866,7 +14867,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14922,7 +14923,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14978,7 +14979,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -15034,7 +15035,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15090,7 +15091,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15202,7 +15203,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15258,7 +15259,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15314,7 +15315,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15370,7 +15371,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15426,7 +15427,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15482,7 +15483,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15538,7 +15539,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15650,7 +15651,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15706,7 +15707,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15874,7 +15875,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15930,7 +15931,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15986,7 +15987,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16154,7 +16155,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16210,7 +16211,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16266,7 +16267,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16322,7 +16323,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16378,7 +16379,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16490,7 +16491,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16546,7 +16547,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16602,7 +16603,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16658,7 +16659,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16714,7 +16715,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16770,7 +16771,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16826,7 +16827,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16882,7 +16883,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16938,7 +16939,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16994,7 +16995,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -17050,7 +17051,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -17109,7 +17110,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -17168,7 +17169,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17286,7 +17287,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17345,7 +17346,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17463,7 +17464,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17581,7 +17582,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17640,7 +17641,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17699,7 +17700,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17758,7 +17759,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17817,7 +17818,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -17876,7 +17877,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -17935,7 +17936,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -17994,7 +17995,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -18171,7 +18172,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -18230,7 +18231,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -18289,7 +18290,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -18348,7 +18349,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -18407,7 +18408,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -18463,7 +18464,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -18522,7 +18523,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -18581,7 +18582,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -18640,7 +18641,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -18699,7 +18700,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -18758,7 +18759,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -18843,7 +18844,7 @@
         <v>276</v>
       </c>
       <c r="J197" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K197" t="s">
         <v>277</v>
@@ -18870,7 +18871,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -18926,7 +18927,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18982,7 +18983,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -19038,7 +19039,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -19091,7 +19092,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -19144,7 +19145,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -19197,7 +19198,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -19250,7 +19251,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -19303,7 +19304,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -19412,7 +19413,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -19471,7 +19472,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -19527,7 +19528,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -19583,7 +19584,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -19639,7 +19640,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -19695,7 +19696,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -19751,7 +19752,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -19807,7 +19808,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -19863,7 +19864,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -19922,7 +19923,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -19978,7 +19979,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -20034,7 +20035,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -20090,7 +20091,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -20146,7 +20147,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
@@ -20202,7 +20203,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
@@ -20317,7 +20318,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
@@ -20373,7 +20374,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
@@ -20432,7 +20433,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
@@ -20488,7 +20489,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
@@ -20547,7 +20548,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
@@ -20606,7 +20607,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
@@ -20662,7 +20663,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
@@ -20718,7 +20719,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
@@ -20774,7 +20775,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
@@ -20833,7 +20834,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
@@ -20892,7 +20893,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20948,7 +20949,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
@@ -21007,7 +21008,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
@@ -21066,7 +21067,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
@@ -21125,7 +21126,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
@@ -21184,7 +21185,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
@@ -21243,7 +21244,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
@@ -21302,7 +21303,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
@@ -21420,7 +21421,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
@@ -21479,7 +21480,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21538,7 +21539,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
@@ -21650,7 +21651,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
@@ -21709,7 +21710,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
@@ -21765,7 +21766,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
@@ -21824,7 +21825,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
@@ -21880,7 +21881,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
@@ -21936,7 +21937,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
@@ -21992,7 +21993,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
@@ -22048,7 +22049,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
@@ -22104,7 +22105,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22160,7 +22161,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22216,7 +22217,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
@@ -22272,7 +22273,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22328,7 +22329,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22384,7 +22385,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22440,7 +22441,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22496,7 +22497,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
@@ -22552,7 +22553,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22608,7 +22609,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22664,7 +22665,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22720,7 +22721,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
@@ -22776,7 +22777,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
@@ -22832,7 +22833,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
@@ -22888,7 +22889,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
@@ -22947,7 +22948,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
@@ -23006,7 +23007,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
@@ -23065,7 +23066,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
@@ -23124,7 +23125,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
@@ -23180,7 +23181,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
@@ -23236,7 +23237,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
@@ -23292,7 +23293,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
@@ -23348,7 +23349,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
@@ -23404,7 +23405,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
@@ -23460,7 +23461,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
@@ -23516,7 +23517,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
@@ -23572,7 +23573,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
@@ -23628,7 +23629,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
@@ -23684,7 +23685,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
@@ -23740,7 +23741,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
@@ -23796,7 +23797,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
@@ -23852,7 +23853,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
@@ -23908,7 +23909,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
@@ -23964,7 +23965,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
@@ -24020,7 +24021,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
@@ -24076,7 +24077,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
@@ -24132,7 +24133,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
@@ -24188,7 +24189,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
@@ -24244,7 +24245,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
@@ -24300,7 +24301,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
@@ -24356,7 +24357,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
@@ -24412,7 +24413,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
@@ -24468,7 +24469,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
@@ -24524,7 +24525,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
@@ -24580,7 +24581,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
@@ -24636,7 +24637,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
@@ -24692,7 +24693,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
@@ -24748,7 +24749,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
@@ -24804,7 +24805,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
@@ -24860,7 +24861,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
@@ -24916,7 +24917,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
@@ -24972,7 +24973,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
@@ -25028,7 +25029,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
@@ -25084,7 +25085,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
@@ -25140,7 +25141,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
@@ -25196,7 +25197,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
@@ -25252,7 +25253,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
@@ -25308,7 +25309,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
@@ -25364,7 +25365,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
@@ -25420,7 +25421,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
@@ -25476,7 +25477,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
@@ -25532,7 +25533,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
@@ -25588,7 +25589,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
@@ -25644,7 +25645,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
@@ -25700,7 +25701,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
@@ -25756,7 +25757,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
@@ -25812,7 +25813,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
@@ -25868,7 +25869,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
@@ -25924,7 +25925,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
@@ -25980,7 +25981,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
@@ -26036,7 +26037,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
@@ -26092,7 +26093,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
@@ -26148,7 +26149,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
@@ -26204,7 +26205,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
@@ -26260,7 +26261,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
@@ -26316,7 +26317,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
@@ -26372,7 +26373,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
@@ -26428,7 +26429,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
@@ -26484,7 +26485,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
@@ -26540,7 +26541,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
@@ -26596,7 +26597,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
@@ -26652,7 +26653,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
@@ -26708,7 +26709,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
@@ -26764,7 +26765,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
@@ -26823,7 +26824,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
@@ -26879,7 +26880,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
@@ -26938,7 +26939,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
@@ -26994,7 +26995,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
@@ -27050,7 +27051,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
@@ -27109,7 +27110,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
@@ -27165,7 +27166,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
@@ -27221,7 +27222,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
@@ -27280,7 +27281,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
@@ -27336,7 +27337,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -27392,7 +27393,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
@@ -27448,7 +27449,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
@@ -27504,7 +27505,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
@@ -27560,7 +27561,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
@@ -27616,7 +27617,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
@@ -27672,7 +27673,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
@@ -27728,7 +27729,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
@@ -27784,7 +27785,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
@@ -27840,7 +27841,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
@@ -27896,7 +27897,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
@@ -27952,7 +27953,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
@@ -28008,7 +28009,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
@@ -28064,7 +28065,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
@@ -28120,7 +28121,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
@@ -28176,7 +28177,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
@@ -28232,7 +28233,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
@@ -28288,7 +28289,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
@@ -28344,7 +28345,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
@@ -28400,7 +28401,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
@@ -28456,7 +28457,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
@@ -28512,7 +28513,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
@@ -28568,7 +28569,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
@@ -28624,7 +28625,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
@@ -28680,7 +28681,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
@@ -28736,7 +28737,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
@@ -28792,7 +28793,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
@@ -28848,7 +28849,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
@@ -28904,7 +28905,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
@@ -28960,7 +28961,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
@@ -29016,7 +29017,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
@@ -29072,7 +29073,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
@@ -29128,7 +29129,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
@@ -29184,7 +29185,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
@@ -29240,7 +29241,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
@@ -29296,7 +29297,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
@@ -29352,7 +29353,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
@@ -29408,7 +29409,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
@@ -29464,7 +29465,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
@@ -29520,7 +29521,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
@@ -29576,7 +29577,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
@@ -29632,7 +29633,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
@@ -29688,7 +29689,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
@@ -29744,7 +29745,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
@@ -29800,7 +29801,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
@@ -29856,7 +29857,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
@@ -29912,7 +29913,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
@@ -29968,7 +29969,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
@@ -30024,7 +30025,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
@@ -30080,7 +30081,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
@@ -30136,7 +30137,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
@@ -30192,7 +30193,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
@@ -30248,7 +30249,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
@@ -30304,7 +30305,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
@@ -30360,7 +30361,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
@@ -30416,7 +30417,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
@@ -30472,7 +30473,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
@@ -30528,7 +30529,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
@@ -30584,7 +30585,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
@@ -30640,7 +30641,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
@@ -30696,7 +30697,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
@@ -30752,7 +30753,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
@@ -30808,7 +30809,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
@@ -30864,7 +30865,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
@@ -30923,7 +30924,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
@@ -30979,7 +30980,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
@@ -31035,7 +31036,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
@@ -31091,7 +31092,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
@@ -31147,7 +31148,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
@@ -31203,7 +31204,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
@@ -31259,7 +31260,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
@@ -31315,7 +31316,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
@@ -31371,7 +31372,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
@@ -31427,7 +31428,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
@@ -31483,7 +31484,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
@@ -31539,7 +31540,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
@@ -31595,7 +31596,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
@@ -31651,7 +31652,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
@@ -31707,7 +31708,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
@@ -31763,7 +31764,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
@@ -31819,7 +31820,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
@@ -31875,7 +31876,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
@@ -31931,7 +31932,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
@@ -31987,7 +31988,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
@@ -32043,7 +32044,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
@@ -32099,7 +32100,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
@@ -32155,7 +32156,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
@@ -32211,7 +32212,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
@@ -32267,7 +32268,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
@@ -32323,7 +32324,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
@@ -32379,7 +32380,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
@@ -32435,7 +32436,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
@@ -32491,7 +32492,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
@@ -32547,7 +32548,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
@@ -32603,7 +32604,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
@@ -32659,7 +32660,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
@@ -32715,7 +32716,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
@@ -32771,7 +32772,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
@@ -32827,7 +32828,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
@@ -32883,7 +32884,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
@@ -32942,7 +32943,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
@@ -32998,7 +32999,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
@@ -33054,7 +33055,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
@@ -33110,7 +33111,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
@@ -33169,7 +33170,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
@@ -33225,7 +33226,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
@@ -33281,7 +33282,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
@@ -33337,7 +33338,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
@@ -33393,7 +33394,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
@@ -33449,7 +33450,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
@@ -33505,7 +33506,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
@@ -33561,7 +33562,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
@@ -33617,7 +33618,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
@@ -33673,7 +33674,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
@@ -33729,7 +33730,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
@@ -33785,7 +33786,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
@@ -33841,7 +33842,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
@@ -33897,7 +33898,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
@@ -33953,7 +33954,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
@@ -34009,7 +34010,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
@@ -34065,7 +34066,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
@@ -34121,7 +34122,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
@@ -34177,7 +34178,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
@@ -34233,7 +34234,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
@@ -34289,7 +34290,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
@@ -34345,7 +34346,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
@@ -34401,7 +34402,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
@@ -34457,7 +34458,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
@@ -34513,7 +34514,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
@@ -34569,7 +34570,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
@@ -34625,7 +34626,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
@@ -34681,7 +34682,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
@@ -34737,7 +34738,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
@@ -34793,7 +34794,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
@@ -34849,7 +34850,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
@@ -34905,7 +34906,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
@@ -34964,7 +34965,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
@@ -35020,7 +35021,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
@@ -35076,7 +35077,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
@@ -35132,7 +35133,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
@@ -35188,7 +35189,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
@@ -35247,7 +35248,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
@@ -35303,7 +35304,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
@@ -35359,7 +35360,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
@@ -35415,7 +35416,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
@@ -35471,7 +35472,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
@@ -35527,7 +35528,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
@@ -35583,7 +35584,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
@@ -35639,7 +35640,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
@@ -35695,7 +35696,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>496</v>
       </c>
@@ -35751,7 +35752,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>497</v>
       </c>
@@ -35807,7 +35808,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>498</v>
       </c>
@@ -35863,7 +35864,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>499</v>
       </c>
@@ -35919,7 +35920,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>500</v>
       </c>
@@ -35975,7 +35976,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>501</v>
       </c>
@@ -36031,7 +36032,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>502</v>
       </c>
@@ -36087,7 +36088,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>503</v>
       </c>
@@ -36143,7 +36144,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>504</v>
       </c>
@@ -36199,7 +36200,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>505</v>
       </c>
@@ -36255,7 +36256,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>506</v>
       </c>
@@ -36311,7 +36312,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>507</v>
       </c>
@@ -36367,7 +36368,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>508</v>
       </c>
@@ -36423,7 +36424,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>509</v>
       </c>
@@ -36479,7 +36480,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>510</v>
       </c>
@@ -36535,7 +36536,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>511</v>
       </c>
@@ -36594,7 +36595,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>512</v>
       </c>
@@ -36653,7 +36654,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>513</v>
       </c>
@@ -36709,7 +36710,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>514</v>
       </c>
@@ -36765,7 +36766,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>515</v>
       </c>
@@ -36821,7 +36822,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>516</v>
       </c>
@@ -36877,7 +36878,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>517</v>
       </c>
@@ -36933,7 +36934,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>518</v>
       </c>
@@ -36989,7 +36990,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>519</v>
       </c>
@@ -37048,7 +37049,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>520</v>
       </c>
@@ -37107,7 +37108,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>521</v>
       </c>
@@ -37166,7 +37167,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>522</v>
       </c>
@@ -37225,7 +37226,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>523</v>
       </c>
@@ -37284,7 +37285,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>524</v>
       </c>
@@ -37343,7 +37344,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>525</v>
       </c>
@@ -37402,7 +37403,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>526</v>
       </c>
@@ -37458,7 +37459,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>527</v>
       </c>
@@ -37514,7 +37515,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>528</v>
       </c>
@@ -37570,7 +37571,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>529</v>
       </c>
@@ -37626,7 +37627,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>530</v>
       </c>
@@ -37682,7 +37683,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>531</v>
       </c>
@@ -37738,7 +37739,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>532</v>
       </c>
@@ -37797,7 +37798,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>533</v>
       </c>
@@ -37856,7 +37857,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>534</v>
       </c>
@@ -37915,7 +37916,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>535</v>
       </c>
@@ -37971,7 +37972,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>536</v>
       </c>
@@ -38027,7 +38028,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>537</v>
       </c>
@@ -38083,7 +38084,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>538</v>
       </c>
@@ -38142,7 +38143,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>539</v>
       </c>
@@ -38198,7 +38199,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>540</v>
       </c>
@@ -38257,7 +38258,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>541</v>
       </c>
@@ -38316,7 +38317,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>542</v>
       </c>
@@ -38375,7 +38376,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>543</v>
       </c>
@@ -38434,7 +38435,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>544</v>
       </c>
@@ -38493,7 +38494,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>545</v>
       </c>
@@ -38552,7 +38553,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>546</v>
       </c>
@@ -38608,7 +38609,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>547</v>
       </c>
@@ -38664,7 +38665,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>548</v>
       </c>
@@ -38723,7 +38724,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>549</v>
       </c>
@@ -38782,7 +38783,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>550</v>
       </c>
@@ -38841,7 +38842,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>551</v>
       </c>
@@ -38897,7 +38898,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>552</v>
       </c>
@@ -38953,7 +38954,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>553</v>
       </c>
@@ -39009,7 +39010,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>554</v>
       </c>
@@ -39065,7 +39066,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>555</v>
       </c>
@@ -39121,7 +39122,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>556</v>
       </c>
@@ -39177,7 +39178,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>557</v>
       </c>
@@ -39233,7 +39234,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>558</v>
       </c>
@@ -39289,7 +39290,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>559</v>
       </c>
@@ -39345,7 +39346,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>560</v>
       </c>
@@ -39401,7 +39402,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>561</v>
       </c>
@@ -39457,7 +39458,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>562</v>
       </c>
@@ -39513,7 +39514,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>563</v>
       </c>
@@ -39569,7 +39570,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>564</v>
       </c>
@@ -39625,7 +39626,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>565</v>
       </c>
@@ -39681,7 +39682,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>566</v>
       </c>
@@ -39737,7 +39738,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>567</v>
       </c>
@@ -39793,7 +39794,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>568</v>
       </c>
@@ -39849,7 +39850,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>569</v>
       </c>
@@ -39905,7 +39906,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>570</v>
       </c>
@@ -39961,7 +39962,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>571</v>
       </c>
@@ -40017,7 +40018,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>572</v>
       </c>
@@ -40073,7 +40074,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>573</v>
       </c>
@@ -40129,7 +40130,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>574</v>
       </c>
@@ -40185,7 +40186,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>575</v>
       </c>
@@ -40241,7 +40242,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>576</v>
       </c>
@@ -40297,7 +40298,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>577</v>
       </c>
@@ -40353,7 +40354,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>578</v>
       </c>
@@ -40409,7 +40410,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>579</v>
       </c>
@@ -40465,7 +40466,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>580</v>
       </c>
@@ -40521,7 +40522,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>581</v>
       </c>
@@ -40577,7 +40578,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>582</v>
       </c>
@@ -40633,7 +40634,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>583</v>
       </c>
@@ -40689,7 +40690,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>584</v>
       </c>
@@ -40745,7 +40746,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>585</v>
       </c>
@@ -40801,7 +40802,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>586</v>
       </c>
@@ -40857,7 +40858,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>587</v>
       </c>
@@ -40913,7 +40914,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>588</v>
       </c>
@@ -40969,7 +40970,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>589</v>
       </c>
@@ -41025,7 +41026,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>590</v>
       </c>
@@ -41081,7 +41082,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>591</v>
       </c>
@@ -41137,7 +41138,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>592</v>
       </c>
@@ -41193,7 +41194,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>593</v>
       </c>
@@ -41249,7 +41250,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>594</v>
       </c>
@@ -41305,7 +41306,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>595</v>
       </c>
@@ -41361,7 +41362,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>596</v>
       </c>
@@ -41417,7 +41418,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>597</v>
       </c>
@@ -41473,7 +41474,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>598</v>
       </c>
@@ -41529,7 +41530,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>599</v>
       </c>
@@ -41588,7 +41589,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>600</v>
       </c>
@@ -41644,7 +41645,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>601</v>
       </c>
@@ -41703,7 +41704,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>602</v>
       </c>
@@ -41762,7 +41763,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>603</v>
       </c>
@@ -41821,7 +41822,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>604</v>
       </c>
@@ -41877,7 +41878,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>605</v>
       </c>
@@ -41930,7 +41931,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>606</v>
       </c>
@@ -41986,7 +41987,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>607</v>
       </c>
@@ -42042,7 +42043,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="609" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>608</v>
       </c>
@@ -42098,7 +42099,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="610" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>609</v>
       </c>
@@ -42154,7 +42155,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="611" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>610</v>
       </c>
@@ -42213,7 +42214,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="612" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>611</v>
       </c>
@@ -42272,7 +42273,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="613" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>612</v>
       </c>
@@ -42328,7 +42329,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="614" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>613</v>
       </c>
@@ -42384,7 +42385,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="615" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>614</v>
       </c>
@@ -42440,7 +42441,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="616" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>615</v>
       </c>
@@ -42496,7 +42497,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="617" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>616</v>
       </c>
@@ -42552,7 +42553,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="618" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>617</v>
       </c>
@@ -42608,7 +42609,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="619" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>618</v>
       </c>
@@ -42664,7 +42665,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="620" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>619</v>
       </c>
@@ -42720,7 +42721,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="621" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>620</v>
       </c>
@@ -42776,7 +42777,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="622" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>621</v>
       </c>
@@ -42832,7 +42833,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="623" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>622</v>
       </c>
@@ -42888,7 +42889,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="624" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>623</v>
       </c>
@@ -42944,7 +42945,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="625" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>624</v>
       </c>
@@ -43000,7 +43001,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="626" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>625</v>
       </c>
@@ -43056,7 +43057,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="627" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>626</v>
       </c>
@@ -43112,7 +43113,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="628" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>627</v>
       </c>
@@ -43168,7 +43169,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="629" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>628</v>
       </c>
@@ -43224,7 +43225,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="630" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>629</v>
       </c>
@@ -43283,7 +43284,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="631" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>630</v>
       </c>
@@ -43342,7 +43343,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="632" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>631</v>
       </c>
@@ -43398,7 +43399,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="633" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>632</v>
       </c>
@@ -43454,7 +43455,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="634" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>633</v>
       </c>
@@ -43513,7 +43514,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="635" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>634</v>
       </c>
@@ -43572,7 +43573,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="636" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>635</v>
       </c>
@@ -43628,7 +43629,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="637" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>636</v>
       </c>
@@ -43684,7 +43685,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="638" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>637</v>
       </c>
@@ -43740,7 +43741,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="639" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>638</v>
       </c>
@@ -43796,7 +43797,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="640" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>639</v>
       </c>
@@ -43852,7 +43853,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="641" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>640</v>
       </c>
@@ -43908,7 +43909,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="642" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>641</v>
       </c>
@@ -43964,7 +43965,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="643" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>642</v>
       </c>
@@ -44020,7 +44021,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="644" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>643</v>
       </c>
@@ -44076,7 +44077,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="645" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>644</v>
       </c>
@@ -44132,7 +44133,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="646" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>645</v>
       </c>
@@ -44188,7 +44189,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="647" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>646</v>
       </c>
@@ -44244,7 +44245,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="648" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>647</v>
       </c>
@@ -44300,7 +44301,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="649" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>648</v>
       </c>
@@ -44356,7 +44357,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="650" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>649</v>
       </c>
@@ -44412,7 +44413,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="651" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>650</v>
       </c>
@@ -44468,7 +44469,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="652" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>651</v>
       </c>
@@ -44524,7 +44525,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="653" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>652</v>
       </c>
@@ -44580,7 +44581,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="654" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>653</v>
       </c>
@@ -44636,7 +44637,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="655" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>654</v>
       </c>
@@ -44692,7 +44693,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="656" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>655</v>
       </c>
@@ -44748,7 +44749,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="657" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>656</v>
       </c>
@@ -44804,7 +44805,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="658" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>657</v>
       </c>
@@ -44860,7 +44861,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="659" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>658</v>
       </c>
@@ -44916,7 +44917,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="660" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>659</v>
       </c>
@@ -44972,7 +44973,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="661" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>660</v>
       </c>
@@ -45028,7 +45029,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="662" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>661</v>
       </c>
@@ -45084,7 +45085,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="663" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>662</v>
       </c>
@@ -45140,7 +45141,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="664" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>663</v>
       </c>
@@ -45199,7 +45200,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="665" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>664</v>
       </c>
@@ -45258,7 +45259,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="666" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>665</v>
       </c>
@@ -45317,7 +45318,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="667" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>666</v>
       </c>
@@ -45376,7 +45377,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="668" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>667</v>
       </c>
@@ -45432,7 +45433,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="669" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>668</v>
       </c>
@@ -45488,7 +45489,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="670" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>669</v>
       </c>
@@ -45544,7 +45545,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="671" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>670</v>
       </c>
@@ -45600,7 +45601,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="672" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>671</v>
       </c>
@@ -45656,7 +45657,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="673" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>672</v>
       </c>
@@ -45712,7 +45713,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="674" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>673</v>
       </c>
@@ -45768,7 +45769,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="675" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>674</v>
       </c>
@@ -45824,7 +45825,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="676" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>675</v>
       </c>
@@ -45880,7 +45881,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="677" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>676</v>
       </c>
@@ -45936,7 +45937,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="678" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>677</v>
       </c>
@@ -45992,7 +45993,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="679" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>678</v>
       </c>
@@ -46048,7 +46049,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="680" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>679</v>
       </c>
@@ -46104,7 +46105,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="681" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>680</v>
       </c>
@@ -46160,7 +46161,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="682" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>681</v>
       </c>
@@ -46216,7 +46217,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="683" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>682</v>
       </c>
@@ -46272,7 +46273,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="684" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>683</v>
       </c>
@@ -46328,7 +46329,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="685" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>684</v>
       </c>
@@ -46384,7 +46385,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="686" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>685</v>
       </c>
@@ -46440,7 +46441,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="687" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>686</v>
       </c>
@@ -46496,7 +46497,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="688" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>687</v>
       </c>
@@ -46552,7 +46553,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="689" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>688</v>
       </c>
@@ -46608,7 +46609,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="690" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>689</v>
       </c>
@@ -46664,7 +46665,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="691" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>690</v>
       </c>
@@ -46720,7 +46721,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="692" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>691</v>
       </c>
@@ -46776,7 +46777,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="693" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>692</v>
       </c>
@@ -46832,7 +46833,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="694" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>693</v>
       </c>
@@ -46888,7 +46889,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="695" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>694</v>
       </c>
@@ -46944,7 +46945,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="696" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>695</v>
       </c>
@@ -47000,7 +47001,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="697" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>696</v>
       </c>
@@ -47056,7 +47057,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="698" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>697</v>
       </c>
@@ -47112,7 +47113,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="699" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>698</v>
       </c>
@@ -47168,7 +47169,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="700" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>699</v>
       </c>
@@ -47224,7 +47225,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="701" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>700</v>
       </c>
@@ -47280,7 +47281,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="702" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>701</v>
       </c>
@@ -47336,7 +47337,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="703" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>702</v>
       </c>
@@ -47392,7 +47393,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="704" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>703</v>
       </c>
@@ -47448,7 +47449,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>704</v>
       </c>
@@ -47504,7 +47505,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>705</v>
       </c>
@@ -47560,7 +47561,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>706</v>
       </c>
@@ -47616,7 +47617,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>707</v>
       </c>
@@ -47672,7 +47673,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>708</v>
       </c>
@@ -47728,7 +47729,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>709</v>
       </c>
@@ -47784,7 +47785,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>710</v>
       </c>
@@ -47840,7 +47841,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>711</v>
       </c>
@@ -47896,7 +47897,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>712</v>
       </c>
@@ -47952,7 +47953,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>713</v>
       </c>
@@ -48008,7 +48009,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>714</v>
       </c>
@@ -48064,7 +48065,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>715</v>
       </c>
@@ -48120,7 +48121,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>716</v>
       </c>
@@ -48179,7 +48180,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>717</v>
       </c>
@@ -48235,7 +48236,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>718</v>
       </c>
@@ -48291,7 +48292,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>719</v>
       </c>
@@ -48350,7 +48351,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="721" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>720</v>
       </c>
@@ -48406,7 +48407,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="722" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>721</v>
       </c>
@@ -48462,7 +48463,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="723" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>722</v>
       </c>
@@ -48518,7 +48519,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="724" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>723</v>
       </c>
@@ -48574,7 +48575,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="725" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>724</v>
       </c>
@@ -48630,7 +48631,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="726" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>725</v>
       </c>
@@ -48686,7 +48687,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="727" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>726</v>
       </c>
@@ -48742,7 +48743,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="728" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>727</v>
       </c>
@@ -48798,7 +48799,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="729" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>728</v>
       </c>
@@ -48854,7 +48855,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="730" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>729</v>
       </c>
@@ -48910,7 +48911,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="731" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>730</v>
       </c>
@@ -48966,7 +48967,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="732" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>731</v>
       </c>
@@ -49022,7 +49023,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="733" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>732</v>
       </c>
@@ -49078,7 +49079,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="734" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>733</v>
       </c>
@@ -49134,7 +49135,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="735" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>734</v>
       </c>
@@ -49190,7 +49191,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="736" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>735</v>
       </c>
@@ -49246,7 +49247,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="737" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>736</v>
       </c>
@@ -49302,7 +49303,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="738" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>737</v>
       </c>
@@ -49358,7 +49359,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="739" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>738</v>
       </c>
@@ -49414,7 +49415,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="740" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>739</v>
       </c>
@@ -49470,7 +49471,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="741" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>740</v>
       </c>
@@ -49526,7 +49527,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="742" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>741</v>
       </c>
@@ -49582,7 +49583,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="743" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>742</v>
       </c>
@@ -49638,7 +49639,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="744" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>743</v>
       </c>
@@ -49694,7 +49695,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="745" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>744</v>
       </c>
@@ -49750,7 +49751,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="746" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>745</v>
       </c>
@@ -49806,7 +49807,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="747" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>746</v>
       </c>
@@ -49862,7 +49863,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="748" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>747</v>
       </c>
@@ -49918,7 +49919,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="749" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>748</v>
       </c>
@@ -49974,7 +49975,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="750" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>749</v>
       </c>
@@ -50030,7 +50031,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="751" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>750</v>
       </c>
@@ -50086,7 +50087,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="752" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>751</v>
       </c>
@@ -50142,7 +50143,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="753" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>752</v>
       </c>
@@ -50198,7 +50199,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="754" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>753</v>
       </c>
@@ -50254,7 +50255,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="755" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>754</v>
       </c>
@@ -50310,7 +50311,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="756" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>755</v>
       </c>
@@ -50366,7 +50367,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="757" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>756</v>
       </c>
@@ -50422,7 +50423,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="758" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>757</v>
       </c>
@@ -50478,7 +50479,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="759" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>758</v>
       </c>
@@ -50534,7 +50535,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="760" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>759</v>
       </c>
@@ -50590,7 +50591,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="761" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>760</v>
       </c>
@@ -50646,7 +50647,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="762" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>761</v>
       </c>
@@ -50702,7 +50703,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="763" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>762</v>
       </c>
@@ -50758,7 +50759,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="764" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>763</v>
       </c>
@@ -50814,7 +50815,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="765" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>764</v>
       </c>
@@ -50870,7 +50871,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="766" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>765</v>
       </c>
@@ -50926,7 +50927,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="767" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>766</v>
       </c>
@@ -50982,7 +50983,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="768" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>767</v>
       </c>
@@ -51038,7 +51039,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="769" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>768</v>
       </c>
@@ -51094,7 +51095,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="770" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>769</v>
       </c>
@@ -51153,7 +51154,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="771" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>770</v>
       </c>
@@ -51209,7 +51210,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="772" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>771</v>
       </c>
@@ -51265,7 +51266,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="773" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>772</v>
       </c>
@@ -51321,7 +51322,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="774" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>773</v>
       </c>
@@ -51377,7 +51378,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="775" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>774</v>
       </c>
@@ -51433,7 +51434,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="776" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>775</v>
       </c>
@@ -51489,7 +51490,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="777" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>776</v>
       </c>
@@ -51545,7 +51546,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="778" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>777</v>
       </c>
@@ -51601,7 +51602,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="779" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>778</v>
       </c>
@@ -51660,7 +51661,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="780" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>779</v>
       </c>
@@ -51716,7 +51717,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="781" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>780</v>
       </c>
@@ -51772,7 +51773,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="782" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>781</v>
       </c>
@@ -51828,7 +51829,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="783" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>782</v>
       </c>
@@ -51884,7 +51885,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="784" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>783</v>
       </c>
@@ -51940,7 +51941,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="785" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>784</v>
       </c>
@@ -51996,7 +51997,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="786" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>785</v>
       </c>
@@ -52052,7 +52053,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="787" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>786</v>
       </c>
@@ -52108,7 +52109,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="788" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>787</v>
       </c>
@@ -52164,7 +52165,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="789" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>788</v>
       </c>
@@ -52214,7 +52215,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="790" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>789</v>
       </c>
@@ -52270,7 +52271,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="791" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>790</v>
       </c>
@@ -52326,7 +52327,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="792" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>791</v>
       </c>
@@ -52382,7 +52383,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="793" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>792</v>
       </c>
@@ -52438,7 +52439,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="794" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>793</v>
       </c>
@@ -52497,7 +52498,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="795" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>794</v>
       </c>
@@ -52556,7 +52557,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="796" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>795</v>
       </c>
@@ -52615,7 +52616,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="797" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>796</v>
       </c>
@@ -52674,7 +52675,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="798" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>797</v>
       </c>
@@ -52733,7 +52734,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="799" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>798</v>
       </c>
@@ -52792,7 +52793,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="800" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>799</v>
       </c>
@@ -52851,7 +52852,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="801" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>800</v>
       </c>
@@ -52907,7 +52908,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="802" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>801</v>
       </c>
@@ -52963,7 +52964,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="803" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>802</v>
       </c>
@@ -53016,7 +53017,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="804" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>803</v>
       </c>
@@ -53069,7 +53070,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="805" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>804</v>
       </c>
@@ -53122,7 +53123,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="806" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>805</v>
       </c>
@@ -53175,7 +53176,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="807" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>806</v>
       </c>
@@ -53228,7 +53229,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="808" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>807</v>
       </c>
@@ -53284,7 +53285,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="809" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>808</v>
       </c>
@@ -53343,7 +53344,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="810" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>809</v>
       </c>
@@ -53402,7 +53403,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="811" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>810</v>
       </c>
@@ -53461,7 +53462,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="812" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>811</v>
       </c>
@@ -53520,7 +53521,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="813" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>812</v>
       </c>
@@ -53579,7 +53580,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="814" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>813</v>
       </c>
@@ -53638,7 +53639,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="815" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>814</v>
       </c>
@@ -53694,7 +53695,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="816" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>815</v>
       </c>
@@ -53750,7 +53751,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="817" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>816</v>
       </c>
@@ -53806,7 +53807,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="818" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A818">
         <v>817</v>
       </c>
@@ -53862,7 +53863,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="819" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A819">
         <v>818</v>
       </c>
@@ -53918,7 +53919,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="820" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A820">
         <v>819</v>
       </c>
@@ -53974,7 +53975,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="821" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A821">
         <v>820</v>
       </c>
@@ -54030,7 +54031,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="822" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A822">
         <v>821</v>
       </c>
@@ -54086,7 +54087,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="823" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A823">
         <v>822</v>
       </c>
@@ -54142,7 +54143,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="824" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A824">
         <v>823</v>
       </c>
@@ -54198,7 +54199,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="825" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A825">
         <v>824</v>
       </c>
@@ -54254,7 +54255,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="826" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A826">
         <v>825</v>
       </c>
@@ -54310,7 +54311,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="827" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A827">
         <v>826</v>
       </c>
@@ -54366,7 +54367,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="828" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A828">
         <v>827</v>
       </c>
@@ -54422,7 +54423,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="829" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A829">
         <v>828</v>
       </c>
@@ -54478,7 +54479,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="830" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A830">
         <v>829</v>
       </c>
@@ -54534,7 +54535,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="831" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A831">
         <v>830</v>
       </c>
@@ -54590,7 +54591,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="832" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A832">
         <v>831</v>
       </c>
@@ -54646,7 +54647,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="833" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A833">
         <v>832</v>
       </c>
@@ -54702,7 +54703,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="834" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A834">
         <v>833</v>
       </c>
@@ -54758,7 +54759,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="835" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A835">
         <v>834</v>
       </c>
@@ -54814,7 +54815,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="836" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A836">
         <v>835</v>
       </c>
@@ -54870,7 +54871,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="837" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A837">
         <v>836</v>
       </c>
@@ -54926,7 +54927,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="838" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A838">
         <v>837</v>
       </c>
@@ -54982,7 +54983,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="839" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>838</v>
       </c>
@@ -55041,7 +55042,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="840" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A840">
         <v>839</v>
       </c>
@@ -55100,7 +55101,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="841" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A841">
         <v>840</v>
       </c>
@@ -55156,7 +55157,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="842" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A842">
         <v>841</v>
       </c>
@@ -55212,7 +55213,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="843" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A843">
         <v>842</v>
       </c>
@@ -55268,7 +55269,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="844" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A844">
         <v>843</v>
       </c>
@@ -55324,7 +55325,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="845" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A845">
         <v>844</v>
       </c>
@@ -55380,7 +55381,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="846" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A846">
         <v>845</v>
       </c>
@@ -55436,7 +55437,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="847" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A847">
         <v>846</v>
       </c>
@@ -55492,7 +55493,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="848" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A848">
         <v>847</v>
       </c>
@@ -55548,7 +55549,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="849" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A849">
         <v>848</v>
       </c>
@@ -55607,7 +55608,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="850" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A850">
         <v>849</v>
       </c>
@@ -55663,7 +55664,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="851" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A851">
         <v>850</v>
       </c>
@@ -55722,7 +55723,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="852" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A852">
         <v>851</v>
       </c>
@@ -55778,7 +55779,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="853" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A853">
         <v>852</v>
       </c>
@@ -55834,7 +55835,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="854" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A854">
         <v>853</v>
       </c>
@@ -55890,7 +55891,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="855" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A855">
         <v>854</v>
       </c>
@@ -55946,7 +55947,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="856" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A856">
         <v>855</v>
       </c>
@@ -56002,7 +56003,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="857" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A857">
         <v>856</v>
       </c>
@@ -56058,7 +56059,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="858" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A858">
         <v>857</v>
       </c>
@@ -56117,7 +56118,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="859" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A859">
         <v>858</v>
       </c>
@@ -56176,7 +56177,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="860" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A860">
         <v>859</v>
       </c>
@@ -56232,7 +56233,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="861" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A861">
         <v>860</v>
       </c>
@@ -56288,7 +56289,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="862" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A862">
         <v>861</v>
       </c>
@@ -56344,7 +56345,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="863" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A863">
         <v>862</v>
       </c>
@@ -56403,7 +56404,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="864" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A864">
         <v>863</v>
       </c>
@@ -56459,7 +56460,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A865">
         <v>864</v>
       </c>
@@ -56515,7 +56516,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A866">
         <v>865</v>
       </c>
@@ -56571,7 +56572,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A867">
         <v>866</v>
       </c>
@@ -56627,7 +56628,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A868">
         <v>867</v>
       </c>
@@ -56683,7 +56684,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A869">
         <v>868</v>
       </c>
@@ -56742,7 +56743,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A870">
         <v>869</v>
       </c>
@@ -56801,7 +56802,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A871">
         <v>870</v>
       </c>
@@ -56860,7 +56861,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A872">
         <v>871</v>
       </c>
@@ -56919,7 +56920,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A873">
         <v>872</v>
       </c>
@@ -56978,7 +56979,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A874">
         <v>873</v>
       </c>
@@ -57037,7 +57038,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A875">
         <v>874</v>
       </c>
@@ -57093,7 +57094,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A876">
         <v>875</v>
       </c>
@@ -57149,7 +57150,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A877">
         <v>876</v>
       </c>
@@ -57208,7 +57209,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A878">
         <v>877</v>
       </c>
@@ -57264,7 +57265,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A879">
         <v>878</v>
       </c>
@@ -57320,7 +57321,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A880">
         <v>879</v>
       </c>
@@ -57376,7 +57377,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="881" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A881">
         <v>880</v>
       </c>
@@ -57432,7 +57433,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="882" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A882">
         <v>881</v>
       </c>
@@ -57488,7 +57489,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="883" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A883">
         <v>882</v>
       </c>
@@ -57544,7 +57545,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="884" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A884">
         <v>883</v>
       </c>
@@ -57600,7 +57601,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="885" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A885">
         <v>884</v>
       </c>
@@ -57656,7 +57657,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="886" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A886">
         <v>885</v>
       </c>
@@ -57715,7 +57716,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="887" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A887">
         <v>886</v>
       </c>
@@ -57771,7 +57772,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="888" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A888">
         <v>887</v>
       </c>
@@ -57827,7 +57828,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="889" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A889">
         <v>888</v>
       </c>
@@ -57883,7 +57884,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="890" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A890">
         <v>889</v>
       </c>
@@ -57939,7 +57940,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="891" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A891">
         <v>890</v>
       </c>
@@ -57998,7 +57999,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="892" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A892">
         <v>891</v>
       </c>
@@ -58054,7 +58055,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="893" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A893">
         <v>892</v>
       </c>
@@ -58110,7 +58111,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="894" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A894">
         <v>893</v>
       </c>
@@ -58166,7 +58167,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="895" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A895">
         <v>894</v>
       </c>
@@ -58222,7 +58223,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="896" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A896">
         <v>895</v>
       </c>
@@ -58278,7 +58279,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="897" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A897">
         <v>896</v>
       </c>
@@ -58334,7 +58335,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="898" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A898">
         <v>897</v>
       </c>
@@ -58390,7 +58391,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="899" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A899">
         <v>898</v>
       </c>
@@ -58446,7 +58447,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="900" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A900">
         <v>899</v>
       </c>
@@ -58502,7 +58503,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="901" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A901">
         <v>900</v>
       </c>
@@ -58558,7 +58559,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="902" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A902">
         <v>901</v>
       </c>
@@ -58614,7 +58615,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="903" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A903">
         <v>902</v>
       </c>
@@ -58670,7 +58671,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="904" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A904">
         <v>903</v>
       </c>
@@ -58726,7 +58727,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="905" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A905">
         <v>904</v>
       </c>
@@ -58782,7 +58783,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="906" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A906">
         <v>905</v>
       </c>
@@ -58838,7 +58839,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="907" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A907">
         <v>906</v>
       </c>
@@ -58894,7 +58895,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="908" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A908">
         <v>907</v>
       </c>
@@ -58950,7 +58951,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="909" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A909">
         <v>908</v>
       </c>
@@ -59006,7 +59007,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="910" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A910">
         <v>909</v>
       </c>
@@ -59062,7 +59063,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="911" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A911">
         <v>910</v>
       </c>
@@ -59118,7 +59119,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="912" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A912">
         <v>911</v>
       </c>
@@ -59174,7 +59175,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="913" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A913">
         <v>912</v>
       </c>
@@ -59230,7 +59231,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="914" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A914">
         <v>913</v>
       </c>
@@ -59286,7 +59287,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="915" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A915">
         <v>914</v>
       </c>
@@ -59342,7 +59343,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="916" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A916">
         <v>915</v>
       </c>
@@ -59398,7 +59399,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="917" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A917">
         <v>916</v>
       </c>
@@ -59454,7 +59455,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="918" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A918">
         <v>917</v>
       </c>
@@ -59510,7 +59511,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="919" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A919">
         <v>918</v>
       </c>
@@ -59566,7 +59567,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="920" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A920">
         <v>919</v>
       </c>
@@ -59622,7 +59623,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="921" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A921">
         <v>920</v>
       </c>
@@ -59678,7 +59679,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="922" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A922">
         <v>921</v>
       </c>
@@ -59731,7 +59732,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="923" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A923">
         <v>922</v>
       </c>
@@ -59784,7 +59785,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="924" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A924">
         <v>923</v>
       </c>
@@ -59840,7 +59841,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="925" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A925">
         <v>924</v>
       </c>
@@ -59896,7 +59897,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="926" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A926">
         <v>925</v>
       </c>
@@ -59952,7 +59953,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="927" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A927">
         <v>926</v>
       </c>
@@ -60008,7 +60009,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="928" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A928">
         <v>927</v>
       </c>
@@ -60064,7 +60065,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="929" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A929">
         <v>928</v>
       </c>
@@ -60120,7 +60121,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="930" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A930">
         <v>929</v>
       </c>
@@ -60176,7 +60177,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="931" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A931">
         <v>930</v>
       </c>
@@ -60232,7 +60233,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="932" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A932">
         <v>931</v>
       </c>
@@ -60288,7 +60289,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="933" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A933">
         <v>932</v>
       </c>
@@ -60344,7 +60345,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="934" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A934">
         <v>933</v>
       </c>
@@ -60400,7 +60401,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="935" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A935">
         <v>934</v>
       </c>
@@ -60456,7 +60457,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="936" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A936">
         <v>935</v>
       </c>
@@ -60512,7 +60513,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="937" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A937">
         <v>936</v>
       </c>
@@ -60568,7 +60569,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="938" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A938">
         <v>937</v>
       </c>
@@ -60624,7 +60625,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="939" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A939">
         <v>938</v>
       </c>
@@ -60680,7 +60681,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="940" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A940">
         <v>939</v>
       </c>
@@ -60736,7 +60737,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="941" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A941">
         <v>940</v>
       </c>
@@ -60792,7 +60793,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="942" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A942">
         <v>941</v>
       </c>
@@ -60848,7 +60849,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="943" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A943">
         <v>942</v>
       </c>
@@ -60904,7 +60905,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="944" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A944">
         <v>943</v>
       </c>
@@ -60960,7 +60961,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="945" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A945">
         <v>944</v>
       </c>
@@ -61016,7 +61017,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="946" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A946">
         <v>945</v>
       </c>
@@ -61072,7 +61073,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="947" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A947">
         <v>946</v>
       </c>
@@ -61128,7 +61129,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="948" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A948">
         <v>947</v>
       </c>
@@ -61184,7 +61185,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="949" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A949">
         <v>948</v>
       </c>
@@ -61240,7 +61241,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="950" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A950">
         <v>949</v>
       </c>
@@ -61296,7 +61297,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="951" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A951">
         <v>950</v>
       </c>
@@ -61352,7 +61353,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="952" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A952">
         <v>951</v>
       </c>
@@ -61408,7 +61409,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="953" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A953">
         <v>952</v>
       </c>
@@ -61464,7 +61465,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="954" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A954">
         <v>953</v>
       </c>
@@ -61523,7 +61524,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="955" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A955">
         <v>954</v>
       </c>
@@ -61582,7 +61583,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="956" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A956">
         <v>955</v>
       </c>
@@ -61641,7 +61642,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="957" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A957">
         <v>956</v>
       </c>
@@ -61701,25 +61702,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S1">
-      <sortCondition ref="D1"/>
-    </sortState>
+  <autoFilter ref="A1:S957" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="adjunto/a de direccion creativa"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003C2C3FC3998BA94F8140D26060A598C4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3bcade5267744b7edf091de635520d13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93bca376-795d-4205-ab1b-3778bdc99034" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71c08f371df1afbb935fc27f7067d6a3" ns2:_="">
     <xsd:import namespace="93bca376-795d-4205-ab1b-3778bdc99034"/>
@@ -61863,6 +61857,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -61870,14 +61873,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05D5DAF-1C24-4D97-9D01-686B464D76D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85115B2D-CDBA-4E7F-9EA5-0A43D543FF86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61895,6 +61890,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05D5DAF-1C24-4D97-9D01-686B464D76D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4034E410-AB53-4E5C-987D-34186C19180D}">
   <ds:schemaRefs>
